--- a/simulations/raw_inclusion_exclusion/Bos_2018 IEC/output/tables/data_descriptives_all.xlsx
+++ b/simulations/raw_inclusion_exclusion/Bos_2018 IEC/output/tables/data_descriptives_all.xlsx
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <v>0</v>
